--- a/Assets/StreamingAssets/Excel/Value/EnemyValue.xlsx
+++ b/Assets/StreamingAssets/Excel/Value/EnemyValue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255F2FAA-929C-474B-9F0B-ECA6E4442A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795574E5-9370-4AE8-BA3F-70903003A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>EnemyName</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Test2</t>
+  </si>
+  <si>
+    <t>Health</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,19 +403,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -424,10 +424,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>2</v>

--- a/Assets/StreamingAssets/Excel/Value/EnemyValue.xlsx
+++ b/Assets/StreamingAssets/Excel/Value/EnemyValue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes and Files\CS 425 - Software Engineering\Senior Projects - Game\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255F2FAA-929C-474B-9F0B-ECA6E4442A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD4FC30-C9D7-4D1C-BD3E-CE3C57BEC8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -59,10 +59,16 @@
     <t>Default Weapon ID</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test2</t>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Claw: 15, Kick: 10, Grab = 6</t>
+  </si>
+  <si>
+    <t>Bite:  9, Claw: 7 , Pounce: 12</t>
   </si>
 </sst>
 </file>
@@ -98,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,19 +390,19 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.77734375" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A3" si="0">ROW()-2</f>
         <v>0</v>
@@ -427,22 +434,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -451,19 +458,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/Value/EnemyValue.xlsx
+++ b/Assets/StreamingAssets/Excel/Value/EnemyValue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes and Files\CS 425 - Software Engineering\Senior Projects - Game\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795574E5-9370-4AE8-BA3F-70903003A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7159E0E-5DD7-4CFE-B006-C8C036219826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -56,13 +56,19 @@
     <t>Default Weapon ID</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>Health</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Claw = 15, Kick = 10, Grab = 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bite = 9, Claw = 7, Pounce = 12 </t>
   </si>
 </sst>
 </file>
@@ -383,19 +389,19 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.77734375" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -418,52 +424,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A3" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/Value/EnemyValue.xlsx
+++ b/Assets/StreamingAssets/Excel/Value/EnemyValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes and Files\CS 425 - Software Engineering\Senior Projects - Game\CS425-426\Assets\StreamingAssets\Excel\Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7159E0E-5DD7-4CFE-B006-C8C036219826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C429DBD-4A5B-4DF8-B339-345A15E7116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t xml:space="preserve">Bite = 9, Claw = 7, Pounce = 12 </t>
+  </si>
+  <si>
+    <t>Swoop Bite = 8, Wing Slash = 6, Blood Drain = 6 (for 2 turns)</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Gnaw = 7, Bite = 5</t>
+  </si>
+  <si>
+    <t>Four-Legged Zombie</t>
+  </si>
+  <si>
+    <t>Sweeping Claw = 16, Leech Bite = 12</t>
   </si>
 </sst>
 </file>
@@ -386,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +457,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>13</v>
@@ -472,6 +490,78 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
